--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.53740650998511</v>
+        <v>0.6931703333333333</v>
       </c>
       <c r="H2">
-        <v>2.53740650998511</v>
+        <v>2.079511</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2024518202264606</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2024518202264605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>224.4197796511155</v>
+        <v>68.58693365732134</v>
       </c>
       <c r="R2">
-        <v>224.4197796511155</v>
+        <v>617.282402915892</v>
       </c>
       <c r="S2">
-        <v>0.1950643981447098</v>
+        <v>0.04247458811985824</v>
       </c>
       <c r="T2">
-        <v>0.1950643981447098</v>
+        <v>0.04247458811985824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.53740650998511</v>
+        <v>0.6931703333333333</v>
       </c>
       <c r="H3">
-        <v>2.53740650998511</v>
+        <v>2.079511</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2024518202264606</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2024518202264605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>413.1848406402009</v>
+        <v>112.9910867124752</v>
       </c>
       <c r="R3">
-        <v>413.1848406402009</v>
+        <v>1016.919780412277</v>
       </c>
       <c r="S3">
-        <v>0.3591379172873989</v>
+        <v>0.06997323853703546</v>
       </c>
       <c r="T3">
-        <v>0.3591379172873989</v>
+        <v>0.06997323853703546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.53740650998511</v>
+        <v>0.6931703333333333</v>
       </c>
       <c r="H4">
-        <v>2.53740650998511</v>
+        <v>2.079511</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2024518202264606</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2024518202264605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>156.8638318302519</v>
+        <v>45.33064105683557</v>
       </c>
       <c r="R4">
-        <v>156.8638318302519</v>
+        <v>407.9757695115201</v>
       </c>
       <c r="S4">
-        <v>0.1363451519033205</v>
+        <v>0.02807240687735132</v>
       </c>
       <c r="T4">
-        <v>0.1363451519033205</v>
+        <v>0.02807240687735132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.6931703333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.079511</v>
+      </c>
+      <c r="I5">
+        <v>0.2024518202264606</v>
+      </c>
+      <c r="J5">
+        <v>0.2024518202264605</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N5">
+        <v>432.81839</v>
+      </c>
+      <c r="O5">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P5">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q5">
+        <v>100.0056225563656</v>
+      </c>
+      <c r="R5">
+        <v>900.0506030072901</v>
+      </c>
+      <c r="S5">
+        <v>0.06193158669221553</v>
+      </c>
+      <c r="T5">
+        <v>0.06193158669221553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1486216666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.445865</v>
+      </c>
+      <c r="I6">
+        <v>0.04340740723433098</v>
+      </c>
+      <c r="J6">
+        <v>0.04340740723433097</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>98.946724</v>
+      </c>
+      <c r="N6">
+        <v>296.840172</v>
+      </c>
+      <c r="O6">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P6">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q6">
+        <v>14.70562703208667</v>
+      </c>
+      <c r="R6">
+        <v>132.35064328878</v>
+      </c>
+      <c r="S6">
+        <v>0.009106916112519046</v>
+      </c>
+      <c r="T6">
+        <v>0.009106916112519046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1486216666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.445865</v>
+      </c>
+      <c r="I7">
+        <v>0.04340740723433098</v>
+      </c>
+      <c r="J7">
+        <v>0.04340740723433097</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N7">
+        <v>489.018707</v>
+      </c>
+      <c r="O7">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P7">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q7">
+        <v>24.22625842183945</v>
+      </c>
+      <c r="R7">
+        <v>218.036325796555</v>
+      </c>
+      <c r="S7">
+        <v>0.01500286269239034</v>
+      </c>
+      <c r="T7">
+        <v>0.01500286269239034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1486216666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.445865</v>
+      </c>
+      <c r="I8">
+        <v>0.04340740723433098</v>
+      </c>
+      <c r="J8">
+        <v>0.04340740723433097</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N8">
+        <v>196.18832</v>
+      </c>
+      <c r="O8">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P8">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q8">
+        <v>9.719278366311114</v>
+      </c>
+      <c r="R8">
+        <v>87.47350529680001</v>
+      </c>
+      <c r="S8">
+        <v>0.006018964887596289</v>
+      </c>
+      <c r="T8">
+        <v>0.006018964887596289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1486216666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.445865</v>
+      </c>
+      <c r="I9">
+        <v>0.04340740723433098</v>
+      </c>
+      <c r="J9">
+        <v>0.04340740723433097</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>21.44206349526111</v>
+      </c>
+      <c r="R9">
+        <v>192.97857145735</v>
+      </c>
+      <c r="S9">
+        <v>0.0132786635418253</v>
+      </c>
+      <c r="T9">
+        <v>0.0132786635418253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.53740650998511</v>
-      </c>
-      <c r="H5">
-        <v>2.53740650998511</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N5">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O5">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P5">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q5">
-        <v>356.0222667672178</v>
-      </c>
-      <c r="R5">
-        <v>356.0222667672178</v>
-      </c>
-      <c r="S5">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="T5">
-        <v>0.309452532664571</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01582833333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.047485</v>
+      </c>
+      <c r="I10">
+        <v>0.004622925622155151</v>
+      </c>
+      <c r="J10">
+        <v>0.00462292562215515</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>1.566161729713333</v>
+      </c>
+      <c r="R10">
+        <v>14.09545556742</v>
+      </c>
+      <c r="S10">
+        <v>0.0009698942765253314</v>
+      </c>
+      <c r="T10">
+        <v>0.0009698942765253313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01582833333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.047485</v>
+      </c>
+      <c r="I11">
+        <v>0.004622925622155151</v>
+      </c>
+      <c r="J11">
+        <v>0.00462292562215515</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>2.580117033543889</v>
+      </c>
+      <c r="R11">
+        <v>23.221053301895</v>
+      </c>
+      <c r="S11">
+        <v>0.001597817579195844</v>
+      </c>
+      <c r="T11">
+        <v>0.001597817579195844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01582833333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.047485</v>
+      </c>
+      <c r="I12">
+        <v>0.004622925622155151</v>
+      </c>
+      <c r="J12">
+        <v>0.00462292562215515</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>1.035111375022223</v>
+      </c>
+      <c r="R12">
+        <v>9.316002375200002</v>
+      </c>
+      <c r="S12">
+        <v>0.0006410248565989924</v>
+      </c>
+      <c r="T12">
+        <v>0.0006410248565989924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01582833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.047485</v>
+      </c>
+      <c r="I13">
+        <v>0.004622925622155151</v>
+      </c>
+      <c r="J13">
+        <v>0.00462292562215515</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>2.283597916572222</v>
+      </c>
+      <c r="R13">
+        <v>20.55238124915</v>
+      </c>
+      <c r="S13">
+        <v>0.001414188909834983</v>
+      </c>
+      <c r="T13">
+        <v>0.001414188909834983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.566257666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.698773</v>
+      </c>
+      <c r="I14">
+        <v>0.7495178469170534</v>
+      </c>
+      <c r="J14">
+        <v>0.7495178469170533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>253.9227890565507</v>
+      </c>
+      <c r="R14">
+        <v>2285.305101508956</v>
+      </c>
+      <c r="S14">
+        <v>0.157249570790097</v>
+      </c>
+      <c r="T14">
+        <v>0.157249570790097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.566257666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.698773</v>
+      </c>
+      <c r="I15">
+        <v>0.7495178469170534</v>
+      </c>
+      <c r="J15">
+        <v>0.7495178469170533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>418.3160019940568</v>
+      </c>
+      <c r="R15">
+        <v>3764.844017946511</v>
+      </c>
+      <c r="S15">
+        <v>0.2590551718993014</v>
+      </c>
+      <c r="T15">
+        <v>0.2590551718993014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.566257666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.698773</v>
+      </c>
+      <c r="I16">
+        <v>0.7495178469170534</v>
+      </c>
+      <c r="J16">
+        <v>0.7495178469170533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>167.8232601034845</v>
+      </c>
+      <c r="R16">
+        <v>1510.40934093136</v>
+      </c>
+      <c r="S16">
+        <v>0.1039297643111129</v>
+      </c>
+      <c r="T16">
+        <v>0.1039297643111129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.566257666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.698773</v>
+      </c>
+      <c r="I17">
+        <v>0.7495178469170534</v>
+      </c>
+      <c r="J17">
+        <v>0.7495178469170533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>370.2411705372744</v>
+      </c>
+      <c r="R17">
+        <v>3332.17053483547</v>
+      </c>
+      <c r="S17">
+        <v>0.229283339916542</v>
+      </c>
+      <c r="T17">
+        <v>0.229283339916542</v>
       </c>
     </row>
   </sheetData>
